--- a/biology/Zoologie/Bruant_de_Socotra/Bruant_de_Socotra.xlsx
+++ b/biology/Zoologie/Bruant_de_Socotra/Bruant_de_Socotra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emberiza socotrana
 Le Bruant de Socotra (Emberiza socotrana) est une espèce de passereau appartenant à la famille des Emberizidae.
@@ -512,10 +524,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est endémique à l'île de Socotra au Yémen[1].
-Il vit dans les régions montagneuses entre 500 et 1 200 m d'altitude. Il préfère les falaises et les rochers aux alentours des sommets de granite. Les plantes dominantes sont les buissons Hypericum et Cocculus. On le trouve aussi dans les prairies de montagnes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est endémique à l'île de Socotra au Yémen.
+Il vit dans les régions montagneuses entre 500 et 1 200 m d'altitude. Il préfère les falaises et les rochers aux alentours des sommets de granite. Les plantes dominantes sont les buissons Hypericum et Cocculus. On le trouve aussi dans les prairies de montagnes.
 Il est menacé par la perte de son habitat.
 </t>
         </is>
